--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H2">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I2">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J2">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>1123.514798109408</v>
+        <v>1094.169233487445</v>
       </c>
       <c r="R2">
-        <v>4494.059192437632</v>
+        <v>4376.676933949781</v>
       </c>
       <c r="S2">
-        <v>0.1916059992884764</v>
+        <v>0.3811652265507791</v>
       </c>
       <c r="T2">
-        <v>0.1388050248027804</v>
+        <v>0.3215403988320523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H3">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I3">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J3">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>70.670677399352</v>
+        <v>62.492266558876</v>
       </c>
       <c r="R3">
-        <v>424.0240643961121</v>
+        <v>374.953599353256</v>
       </c>
       <c r="S3">
-        <v>0.01205228964165167</v>
+        <v>0.0217698306729614</v>
       </c>
       <c r="T3">
-        <v>0.01309654996857162</v>
+        <v>0.02754663679751118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H4">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I4">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J4">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>210.21729075626</v>
+        <v>210.1670142968935</v>
       </c>
       <c r="R4">
-        <v>1261.30374453756</v>
+        <v>1261.002085781361</v>
       </c>
       <c r="S4">
-        <v>0.03585079086706165</v>
+        <v>0.07321386415028955</v>
       </c>
       <c r="T4">
-        <v>0.03895705197630316</v>
+        <v>0.09264177358968871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H5">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I5">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J5">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>532.0700022802125</v>
+        <v>298.5800442098513</v>
       </c>
       <c r="R5">
-        <v>2128.28000912085</v>
+        <v>1194.320176839405</v>
       </c>
       <c r="S5">
-        <v>0.09074006381569201</v>
+        <v>0.1040134621881556</v>
       </c>
       <c r="T5">
-        <v>0.06573477268621469</v>
+        <v>0.08774286788573731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H6">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I6">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J6">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>750.4692946784742</v>
+        <v>374.1973594233875</v>
       </c>
       <c r="R6">
-        <v>4502.815768070845</v>
+        <v>2245.184156540325</v>
       </c>
       <c r="S6">
-        <v>0.1279862262465584</v>
+        <v>0.1303555399969628</v>
       </c>
       <c r="T6">
-        <v>0.1390754833450268</v>
+        <v>0.1649464696709698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H7">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I7">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J7">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>204.130191732148</v>
+        <v>131.799485916714</v>
       </c>
       <c r="R7">
-        <v>1224.781150392888</v>
+        <v>790.7969155002839</v>
       </c>
       <c r="S7">
-        <v>0.03481268732517193</v>
+        <v>0.04591372099597328</v>
       </c>
       <c r="T7">
-        <v>0.03782900284098162</v>
+        <v>0.05809730977233596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J8">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>13.143385751872</v>
+        <v>14.47524535966067</v>
       </c>
       <c r="R8">
-        <v>78.86031451123199</v>
+        <v>86.851472157964</v>
       </c>
       <c r="S8">
-        <v>0.002241493895104103</v>
+        <v>0.005042602193544935</v>
       </c>
       <c r="T8">
-        <v>0.002435706216354766</v>
+        <v>0.006380698739767447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J9">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>0.8267376415235556</v>
@@ -1013,10 +1013,10 @@
         <v>7.440638773712001</v>
       </c>
       <c r="S9">
-        <v>0.0001409931513319447</v>
+        <v>0.0002880026514956826</v>
       </c>
       <c r="T9">
-        <v>0.0002298140734931935</v>
+        <v>0.0005466398354208614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J10">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>2.459217225062222</v>
+        <v>2.780391739546889</v>
       </c>
       <c r="R10">
-        <v>22.13295502556</v>
+        <v>25.023525655922</v>
       </c>
       <c r="S10">
-        <v>0.0004193988140328841</v>
+        <v>0.0009685783650911486</v>
       </c>
       <c r="T10">
-        <v>0.0006836058983048906</v>
+        <v>0.001838398067989903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J11">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>6.224396241808334</v>
+        <v>3.950046544135001</v>
       </c>
       <c r="R11">
-        <v>37.34637745085</v>
+        <v>23.70027926481</v>
       </c>
       <c r="S11">
-        <v>0.001061518427604176</v>
+        <v>0.001376039775019515</v>
       </c>
       <c r="T11">
-        <v>0.001153492783780501</v>
+        <v>0.001741183405182418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J12">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>8.779330233560447</v>
+        <v>4.950421218961112</v>
       </c>
       <c r="R12">
-        <v>79.01397210204401</v>
+        <v>44.55379097065001</v>
       </c>
       <c r="S12">
-        <v>0.001497240931152445</v>
+        <v>0.001724530692051073</v>
       </c>
       <c r="T12">
-        <v>0.002440452136421793</v>
+        <v>0.003273223940075963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J13">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>2.388007579476444</v>
+        <v>1.743633286818667</v>
       </c>
       <c r="R13">
-        <v>21.492068215288</v>
+        <v>15.692699581368</v>
       </c>
       <c r="S13">
-        <v>0.0004072546079001292</v>
+        <v>0.0006074127808121582</v>
       </c>
       <c r="T13">
-        <v>0.0006638112525767538</v>
+        <v>0.001152892241829459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H14">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I14">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J14">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>529.1383083750719</v>
+        <v>337.2632616493115</v>
       </c>
       <c r="R14">
-        <v>2116.553233500288</v>
+        <v>1349.053046597246</v>
       </c>
       <c r="S14">
-        <v>0.09024008807772431</v>
+        <v>0.1174891631014678</v>
       </c>
       <c r="T14">
-        <v>0.06537257554746587</v>
+        <v>0.0991105949090486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H15">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I15">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J15">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>33.283551541768</v>
+        <v>19.26241846549467</v>
       </c>
       <c r="R15">
-        <v>199.701309250608</v>
+        <v>115.574510792968</v>
       </c>
       <c r="S15">
-        <v>0.005676229777980138</v>
+        <v>0.006710263708397749</v>
       </c>
       <c r="T15">
-        <v>0.006168041851857085</v>
+        <v>0.008490888145507488</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H16">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I16">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J16">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>99.00539076934</v>
+        <v>64.78121533992218</v>
       </c>
       <c r="R16">
-        <v>594.0323446160399</v>
+        <v>388.6872920395331</v>
       </c>
       <c r="S16">
-        <v>0.01688453669255381</v>
+        <v>0.02256720977483011</v>
       </c>
       <c r="T16">
-        <v>0.01834748293187452</v>
+        <v>0.02855560709402268</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H17">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I17">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J17">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>250.5873722512875</v>
+        <v>92.03336786636626</v>
       </c>
       <c r="R17">
-        <v>1002.34948900515</v>
+        <v>368.133471465465</v>
       </c>
       <c r="S17">
-        <v>0.04273556872599887</v>
+        <v>0.03206078039793211</v>
       </c>
       <c r="T17">
-        <v>0.03095890368256314</v>
+        <v>0.02704558390413556</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H18">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I18">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J18">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>353.4462151649661</v>
+        <v>115.3414097903708</v>
       </c>
       <c r="R18">
-        <v>2120.677290989796</v>
+        <v>692.0484587422251</v>
       </c>
       <c r="S18">
-        <v>0.06027727927159739</v>
+        <v>0.0401803790930093</v>
       </c>
       <c r="T18">
-        <v>0.06549995257513888</v>
+        <v>0.05084257778064168</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H19">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I19">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J19">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>96.138568466732</v>
+        <v>40.625456413442</v>
       </c>
       <c r="R19">
-        <v>576.831410800392</v>
+        <v>243.752738480652</v>
       </c>
       <c r="S19">
-        <v>0.01639562426078341</v>
+        <v>0.01415230004978576</v>
       </c>
       <c r="T19">
-        <v>0.01781620910065091</v>
+        <v>0.01790773089498798</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H20">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I20">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J20">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>610.6821615866879</v>
+        <v>0.580175977458</v>
       </c>
       <c r="R20">
-        <v>3664.092969520128</v>
+        <v>3.481055864748</v>
       </c>
       <c r="S20">
-        <v>0.1041467064033006</v>
+        <v>0.0002021103327702329</v>
       </c>
       <c r="T20">
-        <v>0.1131704086963899</v>
+        <v>0.0002557419951254207</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H21">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I21">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J21">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>38.412775788672</v>
+        <v>0.033136109776</v>
       </c>
       <c r="R21">
-        <v>345.714982098048</v>
+        <v>0.298224987984</v>
       </c>
       <c r="S21">
-        <v>0.006550975833000072</v>
+        <v>1.154330829566819E-05</v>
       </c>
       <c r="T21">
-        <v>0.0106778692958834</v>
+        <v>2.190963213076847E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H22">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I22">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J22">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>114.26280253536</v>
+        <v>0.111439665106</v>
       </c>
       <c r="R22">
-        <v>1028.36522281824</v>
+        <v>1.002956985954</v>
       </c>
       <c r="S22">
-        <v>0.01948655994396391</v>
+        <v>3.882116577294425E-05</v>
       </c>
       <c r="T22">
-        <v>0.03176243439334351</v>
+        <v>7.368402880584709E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H23">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I23">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J23">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>289.2046100814</v>
+        <v>0.158320087695</v>
       </c>
       <c r="R23">
-        <v>1735.2276604884</v>
+        <v>0.9499205261700001</v>
       </c>
       <c r="S23">
-        <v>0.04932141384050078</v>
+        <v>5.515244831136656E-05</v>
       </c>
       <c r="T23">
-        <v>0.05359482555500533</v>
+        <v>6.978761042977166E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H24">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I24">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J24">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>407.9147082440641</v>
+        <v>0.19841566745</v>
       </c>
       <c r="R24">
-        <v>3671.232374196576</v>
+        <v>1.78574100705</v>
       </c>
       <c r="S24">
-        <v>0.0695664226488987</v>
+        <v>6.912016031903084E-05</v>
       </c>
       <c r="T24">
-        <v>0.1133909187521673</v>
+        <v>0.0001311926569593578</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H25">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I25">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J25">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>110.954183195328</v>
+        <v>0.069885803064</v>
       </c>
       <c r="R25">
-        <v>998.5876487579518</v>
+        <v>0.6289722275759999</v>
       </c>
       <c r="S25">
-        <v>0.01892230274327658</v>
+        <v>2.434544597152424E-05</v>
       </c>
       <c r="T25">
-        <v>0.03084271421854915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J26">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>67.073376</v>
-      </c>
-      <c r="N26">
-        <v>134.146752</v>
-      </c>
-      <c r="O26">
-        <v>0.3886152607163267</v>
-      </c>
-      <c r="P26">
-        <v>0.3201976973989085</v>
-      </c>
-      <c r="Q26">
-        <v>2.233901145472</v>
-      </c>
-      <c r="R26">
-        <v>13.403406872832</v>
-      </c>
-      <c r="S26">
-        <v>0.0003809730517213473</v>
-      </c>
-      <c r="T26">
-        <v>0.0004139821359175438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J27">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>4.219010666666667</v>
-      </c>
-      <c r="N27">
-        <v>12.657032</v>
-      </c>
-      <c r="O27">
-        <v>0.02444445215030819</v>
-      </c>
-      <c r="P27">
-        <v>0.03021133528677833</v>
-      </c>
-      <c r="Q27">
-        <v>0.1405155565902222</v>
-      </c>
-      <c r="R27">
-        <v>1.264640009312</v>
-      </c>
-      <c r="S27">
-        <v>2.396374634437538E-05</v>
-      </c>
-      <c r="T27">
-        <v>3.906009697302773E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J28">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>12.54988666666667</v>
-      </c>
-      <c r="N28">
-        <v>37.64966</v>
-      </c>
-      <c r="O28">
-        <v>0.07271256897710082</v>
-      </c>
-      <c r="P28">
-        <v>0.0898667635266472</v>
-      </c>
-      <c r="Q28">
-        <v>0.4179781587288888</v>
-      </c>
-      <c r="R28">
-        <v>3.761803428559999</v>
-      </c>
-      <c r="S28">
-        <v>7.128265948857332E-05</v>
-      </c>
-      <c r="T28">
-        <v>0.0001161883268211318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J29">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>31.7643625</v>
-      </c>
-      <c r="N29">
-        <v>63.528725</v>
-      </c>
-      <c r="O29">
-        <v>0.1840389846252172</v>
-      </c>
-      <c r="P29">
-        <v>0.1516380468435678</v>
-      </c>
-      <c r="Q29">
-        <v>1.057922681183333</v>
-      </c>
-      <c r="R29">
-        <v>6.3475360871</v>
-      </c>
-      <c r="S29">
-        <v>0.0001804198154213696</v>
-      </c>
-      <c r="T29">
-        <v>0.0001960521360041447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J30">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>44.80271133333334</v>
-      </c>
-      <c r="N30">
-        <v>134.408134</v>
-      </c>
-      <c r="O30">
-        <v>0.2595816460111038</v>
-      </c>
-      <c r="P30">
-        <v>0.3208215955797718</v>
-      </c>
-      <c r="Q30">
-        <v>1.492169235193778</v>
-      </c>
-      <c r="R30">
-        <v>13.429523116744</v>
-      </c>
-      <c r="S30">
-        <v>0.0002544769128968638</v>
-      </c>
-      <c r="T30">
-        <v>0.0004147887710170683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J31">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>12.18648933333333</v>
-      </c>
-      <c r="N31">
-        <v>36.559468</v>
-      </c>
-      <c r="O31">
-        <v>0.07060708751994335</v>
-      </c>
-      <c r="P31">
-        <v>0.08726456136432641</v>
-      </c>
-      <c r="Q31">
-        <v>0.4058750894097777</v>
-      </c>
-      <c r="R31">
-        <v>3.652875804687999</v>
-      </c>
-      <c r="S31">
-        <v>6.921858281130276E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001128239515679745</v>
+        <v>4.620856964339783E-05</v>
       </c>
     </row>
   </sheetData>
